--- a/litdata/references.xlsx
+++ b/litdata/references.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F8CC5322-2AF3-4908-B644-F541342CC04B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AE25E693-84FD-4646-B814-A1F13DBF536B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,9 +215,6 @@
     <t>Pantoula 2006</t>
   </si>
   <si>
-    <t>Pantoula, Maria; Panayiotou; Costas</t>
-  </si>
-  <si>
     <t>Sorption and swelling in glassy polymer/carbon dioxide systems: Part I. Sorption</t>
   </si>
   <si>
@@ -835,6 +832,9 @@
   </si>
   <si>
     <t>Permeation of High-Pressure CO2 in Semi-Crystalline Polymers</t>
+  </si>
+  <si>
+    <t>Pantoula, Maria; Panayiotou, Costas</t>
   </si>
 </sst>
 </file>
@@ -1215,10 +1215,10 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1353,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -1391,7 +1391,7 @@
         <v>34</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G5" s="2">
         <v>2019</v>
@@ -1426,7 +1426,7 @@
         <v>38</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G6" s="2">
         <v>2005</v>
@@ -1508,7 +1508,7 @@
         <v>1987</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I8" s="2">
         <v>25</v>
@@ -1537,10 +1537,10 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="G9" s="2">
         <v>2006</v>
@@ -1555,30 +1555,30 @@
         <v>2</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="G10" s="2">
         <v>1998</v>
@@ -1593,30 +1593,30 @@
         <v>2</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="G11" s="2">
         <v>1997</v>
@@ -1631,30 +1631,30 @@
         <v>44958</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G12" s="2">
         <v>2003</v>
@@ -1669,65 +1669,65 @@
         <v>3</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="G13" s="2">
         <v>1999</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="M13" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="G14" s="2">
         <v>1998</v>
@@ -1742,30 +1742,30 @@
         <v>3</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="G15" s="2">
         <v>1998</v>
@@ -1777,30 +1777,30 @@
         <v>13</v>
       </c>
       <c r="K15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="G16" s="2">
         <v>2003</v>
@@ -1815,62 +1815,62 @@
         <v>11</v>
       </c>
       <c r="K16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="G17" s="2">
         <v>1982</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I17" s="2">
         <v>10</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G18" s="2">
         <v>2019</v>
@@ -1882,637 +1882,637 @@
         <v>163</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="G19" s="2">
         <v>1996</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" s="2">
         <v>125</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M19" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="G20" s="2">
         <v>2008</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="M21" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="M22" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="M23" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="M24" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="M25" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="M26" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="M27" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="M28" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="M29" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="G30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="M30" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="I31" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="M31" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="H32" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="M32" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="M33" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="I34" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="M34" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="G35" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="G36" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/litdata/references.xlsx
+++ b/litdata/references.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AE25E693-84FD-4646-B814-A1F13DBF536B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="10_ncr:100000_{AE25E693-84FD-4646-B814-A1F13DBF536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3FCF816-59D4-4A42-8602-117FCCBAFE48}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="references" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="272">
   <si>
     <t># ref</t>
   </si>
@@ -835,6 +835,30 @@
   </si>
   <si>
     <t>Pantoula, Maria; Panayiotou, Costas</t>
+  </si>
+  <si>
+    <t>[36]</t>
+  </si>
+  <si>
+    <t>NIST</t>
+  </si>
+  <si>
+    <t>https://webbook.nist.gov/cgi/cbook.cgi?ID=C124389#</t>
+  </si>
+  <si>
+    <t>[37]</t>
+  </si>
+  <si>
+    <t>https://archive.org/embed/internationalthe0000ther</t>
+  </si>
+  <si>
+    <t>International Thermodynamic Tables of the Fluid State. 3. Carbon Dioxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angus, S.; Armstrong; B.; De Reuck,  K.M. </t>
+  </si>
+  <si>
+    <t>1976</t>
   </si>
 </sst>
 </file>
@@ -916,13 +940,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -947,6 +970,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1212,32 +1239,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C29BFD-6949-4FC9-A8B7-C10C3E53A820}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.109375" style="2"/>
     <col min="5" max="5" width="12" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="35.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" style="3" customWidth="1"/>
+    <col min="9" max="10" width="9.109375" style="2"/>
+    <col min="11" max="11" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,23 +1305,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="2">
         <v>2016</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="2">
@@ -1303,11 +1330,11 @@
       <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1323,13 +1350,13 @@
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="2">
         <v>2011</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="2">
@@ -1338,11 +1365,11 @@
       <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1352,16 +1379,16 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="2">
         <v>2022</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="2">
@@ -1370,11 +1397,11 @@
       <c r="K4" s="2">
         <v>105378</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -1390,13 +1417,13 @@
       <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G5" s="2">
         <v>2019</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="2">
@@ -1405,11 +1432,11 @@
       <c r="K5" s="2">
         <v>104656</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -1425,13 +1452,13 @@
       <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>194</v>
       </c>
       <c r="G6" s="2">
         <v>2005</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="2">
@@ -1443,11 +1470,11 @@
       <c r="K6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1463,13 +1490,13 @@
       <c r="E7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G7" s="2">
         <v>2005</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>46</v>
       </c>
       <c r="I7" s="2">
@@ -1481,11 +1508,11 @@
       <c r="K7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -1501,13 +1528,13 @@
       <c r="E8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G8" s="2">
         <v>1987</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>134</v>
       </c>
       <c r="I8" s="2">
@@ -1519,11 +1546,11 @@
       <c r="K8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -1539,13 +1566,13 @@
       <c r="E9" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G9" s="2">
         <v>2006</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="2">
@@ -1557,11 +1584,11 @@
       <c r="K9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>60</v>
       </c>
@@ -1577,13 +1604,13 @@
       <c r="E10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G10" s="2">
         <v>1998</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="2">
@@ -1595,11 +1622,11 @@
       <c r="K10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1615,13 +1642,13 @@
       <c r="E11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>69</v>
       </c>
       <c r="G11" s="2">
         <v>1997</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="2">
@@ -1633,11 +1660,11 @@
       <c r="K11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -1650,16 +1677,16 @@
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G12" s="2">
         <v>2003</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="2">
@@ -1671,11 +1698,11 @@
       <c r="K12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>77</v>
       </c>
@@ -1691,13 +1718,13 @@
       <c r="E13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>80</v>
       </c>
       <c r="G13" s="2">
         <v>1999</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>81</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -1706,11 +1733,11 @@
       <c r="K13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>85</v>
       </c>
@@ -1726,13 +1753,13 @@
       <c r="E14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G14" s="2">
         <v>1998</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="2">
@@ -1744,11 +1771,11 @@
       <c r="K14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>91</v>
       </c>
@@ -1764,13 +1791,13 @@
       <c r="E15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G15" s="2">
         <v>1998</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I15" s="2">
@@ -1779,11 +1806,11 @@
       <c r="K15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>97</v>
       </c>
@@ -1799,13 +1826,13 @@
       <c r="E16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>100</v>
       </c>
       <c r="G16" s="2">
         <v>2003</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>46</v>
       </c>
       <c r="I16" s="2">
@@ -1817,11 +1844,11 @@
       <c r="K16" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>104</v>
       </c>
@@ -1837,13 +1864,13 @@
       <c r="E17" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>106</v>
       </c>
       <c r="G17" s="2">
         <v>1982</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>107</v>
       </c>
       <c r="I17" s="2">
@@ -1852,11 +1879,11 @@
       <c r="K17" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>111</v>
       </c>
@@ -1869,13 +1896,13 @@
       <c r="E18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>110</v>
       </c>
       <c r="G18" s="2">
         <v>2019</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I18" s="2">
@@ -1884,11 +1911,11 @@
       <c r="K18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>116</v>
       </c>
@@ -1904,13 +1931,13 @@
       <c r="E19" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>117</v>
       </c>
       <c r="G19" s="2">
         <v>1996</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>81</v>
       </c>
       <c r="I19" s="2">
@@ -1922,11 +1949,11 @@
       <c r="K19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>122</v>
       </c>
@@ -1942,20 +1969,20 @@
       <c r="E20" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G20" s="2">
         <v>2008</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>129</v>
       </c>
@@ -1971,13 +1998,13 @@
       <c r="E21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>134</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -1989,11 +2016,11 @@
       <c r="K21" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>139</v>
       </c>
@@ -2009,13 +2036,13 @@
       <c r="E22" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>140</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="s">
@@ -2027,11 +2054,11 @@
       <c r="K22" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>155</v>
       </c>
@@ -2047,13 +2074,13 @@
       <c r="E23" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>148</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>134</v>
       </c>
       <c r="I23" s="2" t="s">
@@ -2065,11 +2092,11 @@
       <c r="K23" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>157</v>
       </c>
@@ -2085,13 +2112,13 @@
       <c r="E24" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>160</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>46</v>
       </c>
       <c r="I24" s="2" t="s">
@@ -2103,11 +2130,11 @@
       <c r="K24" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>166</v>
       </c>
@@ -2123,13 +2150,13 @@
       <c r="E25" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>46</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -2141,11 +2168,11 @@
       <c r="K25" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>174</v>
       </c>
@@ -2161,13 +2188,13 @@
       <c r="E26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>177</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -2179,11 +2206,11 @@
       <c r="K26" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M26" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>183</v>
       </c>
@@ -2199,13 +2226,13 @@
       <c r="E27" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>184</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>188</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -2214,11 +2241,11 @@
       <c r="K27" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>195</v>
       </c>
@@ -2231,13 +2258,13 @@
       <c r="E28" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>198</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>107</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -2246,11 +2273,11 @@
       <c r="K28" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>203</v>
       </c>
@@ -2263,13 +2290,13 @@
       <c r="E29" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>204</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I29" s="2" t="s">
@@ -2281,11 +2308,11 @@
       <c r="K29" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M29" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>212</v>
       </c>
@@ -2301,13 +2328,13 @@
       <c r="E30" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>214</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>216</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -2319,11 +2346,11 @@
       <c r="K30" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="M30" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>221</v>
       </c>
@@ -2339,13 +2366,13 @@
       <c r="E31" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>223</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>226</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -2357,11 +2384,11 @@
       <c r="K31" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>231</v>
       </c>
@@ -2377,13 +2404,13 @@
       <c r="E32" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>226</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -2395,11 +2422,11 @@
       <c r="K32" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>235</v>
       </c>
@@ -2415,13 +2442,13 @@
       <c r="E33" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>237</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>226</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -2433,11 +2460,11 @@
       <c r="K33" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="M33" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>242</v>
       </c>
@@ -2447,13 +2474,13 @@
       <c r="E34" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>243</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>245</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -2465,11 +2492,11 @@
       <c r="K34" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M34" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>250</v>
       </c>
@@ -2485,17 +2512,17 @@
       <c r="E35" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>261</v>
       </c>
@@ -2508,11 +2535,45 @@
       <c r="E36" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="3" t="s">
         <v>262</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2550,8 +2611,10 @@
     <hyperlink ref="M32" r:id="rId31" xr:uid="{F083FFCD-DA8F-45A0-B5B5-1FCE0F732CFF}"/>
     <hyperlink ref="M33" r:id="rId32" xr:uid="{EA6C3389-2AAC-4537-AD6E-61DC31576565}"/>
     <hyperlink ref="M34" r:id="rId33" xr:uid="{BEEA2231-B83F-4C96-8AE7-0FE34758D30D}"/>
+    <hyperlink ref="M37" r:id="rId34" xr:uid="{74769452-27DA-4FFB-B1E8-8835C0029E02}"/>
+    <hyperlink ref="M38" r:id="rId35" xr:uid="{8C9FCFA8-6B83-4589-9A88-92C5CFFEDD80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>